--- a/help/laboratory.xlsx
+++ b/help/laboratory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t xml:space="preserve">Мониторинг деятельности лабораторий </t>
   </si>
@@ -298,154 +298,58 @@
     <t>СПб ГКУЗ "Хоспис №4"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ «Детский санаторий «Солнечное»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Женская консультация №18»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Женская консультация №22»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Клиническая больница имени Святителя Луки»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Клинический научно-практический центр специализированных видов медицинской помощи (онкологический)»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №1»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №10»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №11</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №2»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №3»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №4»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №5»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №6»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №7»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №8»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер №9»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Кожно-венерологический диспансер Невского района»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Консультативно-диагностическая поликлиника №1»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Консультативно-диагностический центр №85»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Консультативно-диагностический центр для детей»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Мариинская больница»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «НИИ скорой помощи им. И.И. Джанелидзе»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Николаевская больница»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Поликлиника №83 (х.р)»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №11»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №14»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №16»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №17»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №2»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №5»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер №8»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Противотуберкулезный диспансер Пушкинского района»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Психиатрическая больница Святого Николая Чудотворца»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №1»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №10»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №13»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №16»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №17»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №6 им. проф. В.Ф.Снегирева»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Родильный дом №9»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Центр восстановительного лечения «Детская психиатрия» им. С.С. Мнухина»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Центр планирования семьи и репродукции»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ «Центр по профилактике и борьбе со СПИД и инфекционными заболеваниями»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ Детский городской многопрофильный клинический специализированный центр ВМП «Детская городская больница №1»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ Детский городской многопрофильный клинический центр высоких медицинских технологий им. К.А. Раухфуса</t>
-  </si>
-  <si>
     <t>СПб ГКУЗ "Городская станция переливания крови"</t>
   </si>
   <si>
-    <t>СПб ГКУЗ «Городская психиатрическая больница №1 им. Кащенко»</t>
-  </si>
-  <si>
-    <t>СПб ГКУЗ «Городская психиатрическая больница №3 им. И.И. Скворцова-Степанова»</t>
-  </si>
-  <si>
-    <t>СПб ГКУЗ «Диагностический центр (медико-генетический )»</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ "Городская поликлиника № 24"</t>
+    <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "КНпЦСВМП(о)"</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ КВД №11</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ КВД №3</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ КВД №4</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ "КВД №6"</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ КВД №7</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ "КВД №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская Мариинская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Психиатрическая больница Святого Николая Чудотворца"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №1 (специализированный)"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №13"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №16"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
   </si>
 </sst>
 </file>
@@ -613,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -673,6 +577,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,7 +917,7 @@
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B83,svod!$B:$B,1,0)&lt;&gt;$B83,"","отчет сделан"),"должник")</f>
@@ -4256,7 +4163,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B84,svod!$B:$B,1,0)&lt;&gt;$B84,"","отчет сделан"),"должник")</f>
@@ -4272,7 +4179,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B85,svod!$B:$B,1,0)&lt;&gt;$B85,"","отчет сделан"),"должник")</f>
@@ -4288,7 +4195,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B86,svod!$B:$B,1,0)&lt;&gt;$B86,"","отчет сделан"),"должник")</f>
@@ -4299,12 +4206,12 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B87,svod!$B:$B,1,0)&lt;&gt;$B87,"","отчет сделан"),"должник")</f>
@@ -4315,12 +4222,12 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B88,svod!$B:$B,1,0)&lt;&gt;$B88,"","отчет сделан"),"должник")</f>
@@ -4336,7 +4243,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B89,svod!$B:$B,1,0)&lt;&gt;$B89,"","отчет сделан"),"должник")</f>
@@ -4347,12 +4254,12 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B90,svod!$B:$B,1,0)&lt;&gt;$B90,"","отчет сделан"),"должник")</f>
@@ -4363,12 +4270,12 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C91" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B91,svod!$B:$B,1,0)&lt;&gt;$B91,"","отчет сделан"),"должник")</f>
@@ -4379,12 +4286,12 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B92,svod!$B:$B,1,0)&lt;&gt;$B92,"","отчет сделан"),"должник")</f>
@@ -4395,12 +4302,12 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B93,svod!$B:$B,1,0)&lt;&gt;$B93,"","отчет сделан"),"должник")</f>
@@ -4411,12 +4318,12 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C94" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B94,svod!$B:$B,1,0)&lt;&gt;$B94,"","отчет сделан"),"должник")</f>
@@ -4427,12 +4334,12 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C95" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B95,svod!$B:$B,1,0)&lt;&gt;$B95,"","отчет сделан"),"должник")</f>
@@ -4443,12 +4350,12 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B96,svod!$B:$B,1,0)&lt;&gt;$B96,"","отчет сделан"),"должник")</f>
@@ -4459,12 +4366,12 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B97,svod!$B:$B,1,0)&lt;&gt;$B97,"","отчет сделан"),"должник")</f>
@@ -4480,7 +4387,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B98,svod!$B:$B,1,0)&lt;&gt;$B98,"","отчет сделан"),"должник")</f>
@@ -4491,12 +4398,12 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C99" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B99,svod!$B:$B,1,0)&lt;&gt;$B99,"","отчет сделан"),"должник")</f>
@@ -4507,12 +4414,12 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B100,svod!$B:$B,1,0)&lt;&gt;$B100,"","отчет сделан"),"должник")</f>
@@ -4523,12 +4430,12 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B101,svod!$B:$B,1,0)&lt;&gt;$B101,"","отчет сделан"),"должник")</f>
@@ -4539,12 +4446,12 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B102,svod!$B:$B,1,0)&lt;&gt;$B102,"","отчет сделан"),"должник")</f>
@@ -4560,7 +4467,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B103,svod!$B:$B,1,0)&lt;&gt;$B103,"","отчет сделан"),"должник")</f>
@@ -4571,12 +4478,12 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C104" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B104,svod!$B:$B,1,0)&lt;&gt;$B104,"","отчет сделан"),"должник")</f>
@@ -4592,7 +4499,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B105,svod!$B:$B,1,0)&lt;&gt;$B105,"","отчет сделан"),"должник")</f>
@@ -4608,7 +4515,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B106,svod!$B:$B,1,0)&lt;&gt;$B106,"","отчет сделан"),"должник")</f>
@@ -4624,7 +4531,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B107,svod!$B:$B,1,0)&lt;&gt;$B107,"","отчет сделан"),"должник")</f>
@@ -4640,7 +4547,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B108,svod!$B:$B,1,0)&lt;&gt;$B108,"","отчет сделан"),"должник")</f>
@@ -4656,7 +4563,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B109,svod!$B:$B,1,0)&lt;&gt;$B109,"","отчет сделан"),"должник")</f>
@@ -4672,7 +4579,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B110,svod!$B:$B,1,0)&lt;&gt;$B110,"","отчет сделан"),"должник")</f>
@@ -4688,7 +4595,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B111,svod!$B:$B,1,0)&lt;&gt;$B111,"","отчет сделан"),"должник")</f>
@@ -4704,7 +4611,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B112,svod!$B:$B,1,0)&lt;&gt;$B112,"","отчет сделан"),"должник")</f>
@@ -4720,7 +4627,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B113,svod!$B:$B,1,0)&lt;&gt;$B113,"","отчет сделан"),"должник")</f>
@@ -4736,7 +4643,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C114" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B114,svod!$B:$B,1,0)&lt;&gt;$B114,"","отчет сделан"),"должник")</f>
@@ -4752,7 +4659,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B115,svod!$B:$B,1,0)&lt;&gt;$B115,"","отчет сделан"),"должник")</f>
@@ -4763,12 +4670,12 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C116" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B116,svod!$B:$B,1,0)&lt;&gt;$B116,"","отчет сделан"),"должник")</f>
@@ -4784,7 +4691,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B117,svod!$B:$B,1,0)&lt;&gt;$B117,"","отчет сделан"),"должник")</f>
@@ -4800,7 +4707,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B118,svod!$B:$B,1,0)&lt;&gt;$B118,"","отчет сделан"),"должник")</f>
@@ -4816,7 +4723,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B119,svod!$B:$B,1,0)&lt;&gt;$B119,"","отчет сделан"),"должник")</f>
@@ -4832,7 +4739,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C120" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B120,svod!$B:$B,1,0)&lt;&gt;$B120,"","отчет сделан"),"должник")</f>
@@ -4848,7 +4755,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C121" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B121,svod!$B:$B,1,0)&lt;&gt;$B121,"","отчет сделан"),"должник")</f>
@@ -4864,7 +4771,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C122" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B122,svod!$B:$B,1,0)&lt;&gt;$B122,"","отчет сделан"),"должник")</f>
@@ -4880,7 +4787,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B123,svod!$B:$B,1,0)&lt;&gt;$B123,"","отчет сделан"),"должник")</f>
@@ -4896,7 +4803,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B124,svod!$B:$B,1,0)&lt;&gt;$B124,"","отчет сделан"),"должник")</f>
@@ -4912,7 +4819,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C125" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B125,svod!$B:$B,1,0)&lt;&gt;$B125,"","отчет сделан"),"должник")</f>
@@ -4928,7 +4835,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B126,svod!$B:$B,1,0)&lt;&gt;$B126,"","отчет сделан"),"должник")</f>
@@ -4939,12 +4846,12 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B127,svod!$B:$B,1,0)&lt;&gt;$B127,"","отчет сделан"),"должник")</f>
@@ -4959,8 +4866,8 @@
       <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>136</v>
+      <c r="B128" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B128,svod!$B:$B,1,0)&lt;&gt;$B128,"","отчет сделан"),"должник")</f>
@@ -4976,7 +4883,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C129" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B129,svod!$B:$B,1,0)&lt;&gt;$B129,"","отчет сделан"),"должник")</f>
@@ -4992,7 +4899,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C130" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B130,svod!$B:$B,1,0)&lt;&gt;$B130,"","отчет сделан"),"должник")</f>
@@ -5008,7 +4915,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B131,svod!$B:$B,1,0)&lt;&gt;$B131,"","отчет сделан"),"должник")</f>
@@ -5024,7 +4931,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C132" s="4" t="str">
         <f>IFERROR(IF(VLOOKUP($B132,svod!$B:$B,1,0)&lt;&gt;$B132,"","отчет сделан"),"должник")</f>

--- a/help/laboratory.xlsx
+++ b/help/laboratory.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
     <sheet name="Должники" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Должники!$A$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Должники!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t xml:space="preserve">Мониторинг деятельности лабораторий </t>
   </si>
@@ -79,9 +79,6 @@
     <t>СПБ ГБУЗ КДЦД</t>
   </si>
   <si>
-    <t>СПб ГАУЗ "Городская поликлиника №40"</t>
-  </si>
-  <si>
     <t>СПб ГАУЗ "Городская поликлиника №83"</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>СПб ГБУЗ "Городская многопрофильная больница №2"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Городская поликлиника №104"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Городская поликлиника №106"</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №22"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Городская поликлиника №23"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Городская поликлиника №24"</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>СПб ГБУЗ "Детская городская поликлиника №17"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Детская городская поликлиника №35"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Детская городская поликлиника №44"</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>СПб ГБУЗ "Женская консультация №22"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Женская консультация №33"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "КВД №10 - Клиника дерматологии и венерологии"</t>
   </si>
   <si>
@@ -235,18 +220,12 @@
     <t>СПб ГБУЗ "Николаевская больница"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Противотуберкулезный диспансер №11"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Противотуберкулезный диспансер №14"</t>
   </si>
   <si>
     <t>СПб ГБУЗ "Противотуберкулезный диспансер №16"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Противотуберкулезный диспансер №2"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Противотуберкулезный диспансер №5"</t>
   </si>
   <si>
@@ -298,9 +277,6 @@
     <t>СПб ГКУЗ "Хоспис №4"</t>
   </si>
   <si>
-    <t>СПб ГКУЗ "Городская станция переливания крови"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
   </si>
   <si>
@@ -328,12 +304,6 @@
     <t>СПб ГБУЗ "Городская Мариинская больница"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Противотуберкулезный диспансер №17"</t>
-  </si>
-  <si>
-    <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
   </si>
   <si>
@@ -350,6 +320,96 @@
   </si>
   <si>
     <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №38 им. Н.А.Семашко"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №87"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Клиническая ревматологическая больница №25"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Пионер" (психоневрологический)</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская наркологическая больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский психоневрологический санаторий "Комарово"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской кожно-венерологический диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №75"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской врачебно-физкультурный диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская больница №17 Святителя Николая Чудотворца"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Госпиталь для ветеранов войн"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №33"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №77 Невского района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №63"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №78"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №86"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №100 Невского района Санкт-Петербурга"</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ "Введенская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №28 "Максимилиановская"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №14"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №91"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Диагностический Центр №7" (глазной) для взрослого и детского населения</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской клинический онкологический диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Хоспис №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №37"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская психиатрическая больница №7 им.акад.И.П.Павлова"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №94"</t>
   </si>
 </sst>
 </file>
@@ -467,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -512,12 +572,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -577,26 +650,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,6 +686,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -916,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2822,38 +2911,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="str">
+      <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B2,svod!$B:$B,1,0)&lt;&gt;$B2,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2862,14 +2951,14 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="str">
+      <c r="B3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B3,svod!$B:$B,1,0)&lt;&gt;$B3,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2878,14 +2967,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="str">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B4,svod!$B:$B,1,0)&lt;&gt;$B4,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2894,14 +2983,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="str">
+      <c r="B5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B5,svod!$B:$B,1,0)&lt;&gt;$B5,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2910,14 +2999,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="B6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B6,svod!$B:$B,1,0)&lt;&gt;$B6,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2926,14 +3015,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="str">
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B7,svod!$B:$B,1,0)&lt;&gt;$B7,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2942,14 +3031,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="str">
+      <c r="B8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B8,svod!$B:$B,1,0)&lt;&gt;$B8,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2958,14 +3047,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="str">
+      <c r="B9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B9,svod!$B:$B,1,0)&lt;&gt;$B9,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2974,14 +3063,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="str">
+      <c r="B10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B10,svod!$B:$B,1,0)&lt;&gt;$B10,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -2990,14 +3079,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="str">
+      <c r="B11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B11,svod!$B:$B,1,0)&lt;&gt;$B11,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3006,14 +3095,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="str">
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B12,svod!$B:$B,1,0)&lt;&gt;$B12,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3022,14 +3111,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4" t="str">
+      <c r="B13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B13,svod!$B:$B,1,0)&lt;&gt;$B13,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3038,14 +3127,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="str">
+      <c r="B14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B14,svod!$B:$B,1,0)&lt;&gt;$B14,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3054,14 +3143,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="str">
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B15,svod!$B:$B,1,0)&lt;&gt;$B15,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3070,14 +3159,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="str">
+      <c r="B16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B16,svod!$B:$B,1,0)&lt;&gt;$B16,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3086,14 +3175,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="str">
+      <c r="B17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B17,svod!$B:$B,1,0)&lt;&gt;$B17,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3102,14 +3191,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="str">
+      <c r="B18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B18,svod!$B:$B,1,0)&lt;&gt;$B18,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3118,14 +3207,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4" t="str">
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B19,svod!$B:$B,1,0)&lt;&gt;$B19,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3134,14 +3223,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="str">
+      <c r="B20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B20,svod!$B:$B,1,0)&lt;&gt;$B20,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3150,14 +3239,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="str">
+      <c r="B21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B21,svod!$B:$B,1,0)&lt;&gt;$B21,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3166,14 +3255,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="str">
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B22,svod!$B:$B,1,0)&lt;&gt;$B22,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3182,14 +3271,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="str">
+      <c r="B23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B23,svod!$B:$B,1,0)&lt;&gt;$B23,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3198,14 +3287,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="str">
+      <c r="B24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B24,svod!$B:$B,1,0)&lt;&gt;$B24,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3214,14 +3303,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="str">
+      <c r="B25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B25,svod!$B:$B,1,0)&lt;&gt;$B25,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3230,14 +3319,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4" t="str">
+      <c r="B26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B26,svod!$B:$B,1,0)&lt;&gt;$B26,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3246,14 +3335,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="str">
+      <c r="B27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B27,svod!$B:$B,1,0)&lt;&gt;$B27,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3262,14 +3351,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="str">
+      <c r="B28" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B28,svod!$B:$B,1,0)&lt;&gt;$B28,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3278,14 +3367,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4" t="str">
+      <c r="B29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B29,svod!$B:$B,1,0)&lt;&gt;$B29,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3294,14 +3383,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="4" t="str">
+      <c r="B30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B30,svod!$B:$B,1,0)&lt;&gt;$B30,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3310,14 +3399,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4" t="str">
+      <c r="B31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B31,svod!$B:$B,1,0)&lt;&gt;$B31,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3326,14 +3415,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4" t="str">
+      <c r="B32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B32,svod!$B:$B,1,0)&lt;&gt;$B32,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3342,14 +3431,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B33,svod!$B:$B,1,0)&lt;&gt;$B33,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3358,14 +3447,14 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4" t="str">
+      <c r="B34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B34,svod!$B:$B,1,0)&lt;&gt;$B34,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3374,14 +3463,14 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4" t="str">
+      <c r="B35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B35,svod!$B:$B,1,0)&lt;&gt;$B35,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3390,14 +3479,14 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="4" t="str">
+      <c r="B36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B36,svod!$B:$B,1,0)&lt;&gt;$B36,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3406,14 +3495,14 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="4" t="str">
+      <c r="B37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B37,svod!$B:$B,1,0)&lt;&gt;$B37,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3422,14 +3511,14 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="4" t="str">
+      <c r="B38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B38,svod!$B:$B,1,0)&lt;&gt;$B38,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3438,14 +3527,14 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4" t="str">
+      <c r="B39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B39,svod!$B:$B,1,0)&lt;&gt;$B39,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3454,14 +3543,14 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="4" t="str">
+      <c r="B40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B40,svod!$B:$B,1,0)&lt;&gt;$B40,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3470,14 +3559,14 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="4" t="str">
+      <c r="B41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B41,svod!$B:$B,1,0)&lt;&gt;$B41,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3486,14 +3575,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="4" t="str">
+      <c r="B42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B42,svod!$B:$B,1,0)&lt;&gt;$B42,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3502,14 +3591,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4" t="str">
+      <c r="B43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B43,svod!$B:$B,1,0)&lt;&gt;$B43,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3518,14 +3607,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4" t="str">
+      <c r="B44" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B44,svod!$B:$B,1,0)&lt;&gt;$B44,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3534,14 +3623,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4" t="str">
+      <c r="B45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B45,svod!$B:$B,1,0)&lt;&gt;$B45,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3550,14 +3639,14 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4" t="str">
+      <c r="B46" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B46,svod!$B:$B,1,0)&lt;&gt;$B46,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3566,14 +3655,14 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="4" t="str">
+      <c r="B47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B47,svod!$B:$B,1,0)&lt;&gt;$B47,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3582,14 +3671,14 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="4" t="str">
+      <c r="B48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B48,svod!$B:$B,1,0)&lt;&gt;$B48,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3598,14 +3687,14 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4" t="str">
+      <c r="B49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B49,svod!$B:$B,1,0)&lt;&gt;$B49,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3614,14 +3703,14 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4" t="str">
+      <c r="B50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B50,svod!$B:$B,1,0)&lt;&gt;$B50,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3630,14 +3719,14 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="4" t="str">
+      <c r="B51" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B51,svod!$B:$B,1,0)&lt;&gt;$B51,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3646,14 +3735,14 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="4" t="str">
+      <c r="B52" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B52,svod!$B:$B,1,0)&lt;&gt;$B52,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3662,14 +3751,14 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="4" t="str">
+      <c r="B53" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B53,svod!$B:$B,1,0)&lt;&gt;$B53,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3678,14 +3767,14 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4" t="str">
+      <c r="B54" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B54,svod!$B:$B,1,0)&lt;&gt;$B54,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3694,14 +3783,14 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="4" t="str">
+      <c r="B55" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B55,svod!$B:$B,1,0)&lt;&gt;$B55,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3710,14 +3799,14 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="4" t="str">
+      <c r="B56" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B56,svod!$B:$B,1,0)&lt;&gt;$B56,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3726,14 +3815,14 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="4" t="str">
+      <c r="B57" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B57,svod!$B:$B,1,0)&lt;&gt;$B57,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3742,14 +3831,14 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="4" t="str">
+      <c r="B58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B58,svod!$B:$B,1,0)&lt;&gt;$B58,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3758,14 +3847,14 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4" t="str">
+      <c r="B59" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B59,svod!$B:$B,1,0)&lt;&gt;$B59,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3774,14 +3863,14 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="4" t="str">
+      <c r="B60" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B60,svod!$B:$B,1,0)&lt;&gt;$B60,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3790,14 +3879,14 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="4" t="str">
+      <c r="B61" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B61,svod!$B:$B,1,0)&lt;&gt;$B61,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3806,14 +3895,14 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="4" t="str">
+      <c r="B62" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B62,svod!$B:$B,1,0)&lt;&gt;$B62,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3822,14 +3911,14 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="4" t="str">
+      <c r="B63" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B63,svod!$B:$B,1,0)&lt;&gt;$B63,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3838,14 +3927,14 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="4" t="str">
+      <c r="B64" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B64,svod!$B:$B,1,0)&lt;&gt;$B64,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3854,14 +3943,14 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="4" t="str">
+      <c r="B65" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B65,svod!$B:$B,1,0)&lt;&gt;$B65,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3870,14 +3959,14 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="4" t="str">
+      <c r="B66" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B66,svod!$B:$B,1,0)&lt;&gt;$B66,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3886,14 +3975,14 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="4" t="str">
+      <c r="B67" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B67,svod!$B:$B,1,0)&lt;&gt;$B67,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3902,14 +3991,14 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="4" t="str">
+      <c r="B68" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B68,svod!$B:$B,1,0)&lt;&gt;$B68,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3918,14 +4007,14 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="4" t="str">
+      <c r="B69" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B69,svod!$B:$B,1,0)&lt;&gt;$B69,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3934,14 +4023,14 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="4" t="str">
+      <c r="B70" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B70,svod!$B:$B,1,0)&lt;&gt;$B70,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3950,14 +4039,14 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="4" t="str">
+      <c r="B71" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B71,svod!$B:$B,1,0)&lt;&gt;$B71,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3966,14 +4055,14 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="4" t="str">
+      <c r="B72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B72,svod!$B:$B,1,0)&lt;&gt;$B72,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3982,14 +4071,14 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="4" t="str">
+      <c r="B73" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B73,svod!$B:$B,1,0)&lt;&gt;$B73,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -3998,14 +4087,14 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="4" t="str">
+      <c r="B74" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B74,svod!$B:$B,1,0)&lt;&gt;$B74,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4014,14 +4103,14 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="4" t="str">
+      <c r="B75" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B75,svod!$B:$B,1,0)&lt;&gt;$B75,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4030,14 +4119,14 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="4" t="str">
+      <c r="B76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B76,svod!$B:$B,1,0)&lt;&gt;$B76,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4046,14 +4135,14 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="4" t="str">
+      <c r="B77" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B77,svod!$B:$B,1,0)&lt;&gt;$B77,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4062,14 +4151,14 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="4" t="str">
+      <c r="B78" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B78,svod!$B:$B,1,0)&lt;&gt;$B78,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4078,14 +4167,14 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="4" t="str">
+      <c r="B79" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B79,svod!$B:$B,1,0)&lt;&gt;$B79,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4094,14 +4183,14 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="4" t="str">
+      <c r="B80" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B80,svod!$B:$B,1,0)&lt;&gt;$B80,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4110,14 +4199,14 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="4" t="str">
+      <c r="B81" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B81,svod!$B:$B,1,0)&lt;&gt;$B81,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4126,14 +4215,14 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="4" t="str">
+      <c r="B82" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B82,svod!$B:$B,1,0)&lt;&gt;$B82,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4142,14 +4231,14 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="4" t="str">
+      <c r="B83" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B83,svod!$B:$B,1,0)&lt;&gt;$B83,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4158,14 +4247,14 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="4" t="str">
+      <c r="B84" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B84,svod!$B:$B,1,0)&lt;&gt;$B84,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4174,14 +4263,14 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="4" t="str">
+      <c r="B85" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B85,svod!$B:$B,1,0)&lt;&gt;$B85,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4190,14 +4279,14 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="4" t="str">
+      <c r="B86" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B86,svod!$B:$B,1,0)&lt;&gt;$B86,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4206,14 +4295,14 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="24">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="4" t="str">
+      <c r="B87" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B87,svod!$B:$B,1,0)&lt;&gt;$B87,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4222,14 +4311,14 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="24">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="4" t="str">
+      <c r="B88" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B88,svod!$B:$B,1,0)&lt;&gt;$B88,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4238,14 +4327,14 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="24">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="4" t="str">
+      <c r="B89" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B89,svod!$B:$B,1,0)&lt;&gt;$B89,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4254,14 +4343,14 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="4" t="str">
+      <c r="B90" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B90,svod!$B:$B,1,0)&lt;&gt;$B90,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4270,14 +4359,14 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="4" t="str">
+      <c r="B91" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B91,svod!$B:$B,1,0)&lt;&gt;$B91,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4286,14 +4375,14 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="4" t="str">
+      <c r="B92" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B92,svod!$B:$B,1,0)&lt;&gt;$B92,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4302,14 +4391,14 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="24">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="4" t="str">
+      <c r="B93" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B93,svod!$B:$B,1,0)&lt;&gt;$B93,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4318,14 +4407,14 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="4" t="str">
+      <c r="B94" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B94,svod!$B:$B,1,0)&lt;&gt;$B94,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4334,14 +4423,14 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="4" t="str">
+      <c r="B95" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B95,svod!$B:$B,1,0)&lt;&gt;$B95,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4350,14 +4439,14 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="4" t="str">
+      <c r="B96" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B96,svod!$B:$B,1,0)&lt;&gt;$B96,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4366,14 +4455,14 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="4" t="str">
+      <c r="B97" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B97,svod!$B:$B,1,0)&lt;&gt;$B97,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4382,14 +4471,14 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" s="4" t="str">
+      <c r="B98" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B98,svod!$B:$B,1,0)&lt;&gt;$B98,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4398,14 +4487,14 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
         <v>98</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="4" t="str">
+      <c r="B99" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B99,svod!$B:$B,1,0)&lt;&gt;$B99,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4414,14 +4503,14 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="24">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="4" t="str">
+      <c r="B100" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B100,svod!$B:$B,1,0)&lt;&gt;$B100,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4430,14 +4519,14 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="4" t="str">
+      <c r="B101" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B101,svod!$B:$B,1,0)&lt;&gt;$B101,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4446,14 +4535,14 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="24">
         <v>101</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="4" t="str">
+      <c r="B102" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B102,svod!$B:$B,1,0)&lt;&gt;$B102,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4462,14 +4551,14 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="24">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="4" t="str">
+      <c r="B103" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B103,svod!$B:$B,1,0)&lt;&gt;$B103,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4478,14 +4567,14 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="24">
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="4" t="str">
+      <c r="B104" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B104,svod!$B:$B,1,0)&lt;&gt;$B104,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4494,14 +4583,14 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="24">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="4" t="str">
+      <c r="B105" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B105,svod!$B:$B,1,0)&lt;&gt;$B105,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4510,14 +4599,14 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="24">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="4" t="str">
+      <c r="B106" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B106,svod!$B:$B,1,0)&lt;&gt;$B106,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4526,14 +4615,14 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="24">
         <v>106</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C107" s="4" t="str">
+      <c r="B107" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B107,svod!$B:$B,1,0)&lt;&gt;$B107,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4542,14 +4631,14 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="4" t="str">
+      <c r="B108" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B108,svod!$B:$B,1,0)&lt;&gt;$B108,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4558,14 +4647,14 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="24">
         <v>108</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="4" t="str">
+      <c r="B109" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B109,svod!$B:$B,1,0)&lt;&gt;$B109,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4574,14 +4663,14 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="24">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110" s="4" t="str">
+      <c r="B110" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B110,svod!$B:$B,1,0)&lt;&gt;$B110,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4590,14 +4679,14 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
         <v>110</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" s="4" t="str">
+      <c r="B111" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B111,svod!$B:$B,1,0)&lt;&gt;$B111,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4606,14 +4695,14 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
         <v>111</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="4" t="str">
+      <c r="B112" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B112,svod!$B:$B,1,0)&lt;&gt;$B112,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4622,14 +4711,14 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="24">
         <v>112</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="4" t="str">
+      <c r="B113" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B113,svod!$B:$B,1,0)&lt;&gt;$B113,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4638,14 +4727,14 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="24">
         <v>113</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="4" t="str">
+      <c r="B114" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B114,svod!$B:$B,1,0)&lt;&gt;$B114,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4654,14 +4743,14 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="24">
         <v>114</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="4" t="str">
+      <c r="B115" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B115,svod!$B:$B,1,0)&lt;&gt;$B115,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4670,14 +4759,14 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="24">
         <v>115</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C116" s="4" t="str">
+      <c r="B116" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B116,svod!$B:$B,1,0)&lt;&gt;$B116,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4686,14 +4775,14 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
         <v>116</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="4" t="str">
+      <c r="B117" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B117,svod!$B:$B,1,0)&lt;&gt;$B117,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4702,14 +4791,14 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="24">
         <v>117</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" s="4" t="str">
+      <c r="B118" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B118,svod!$B:$B,1,0)&lt;&gt;$B118,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4718,14 +4807,14 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="24">
         <v>118</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="4" t="str">
+      <c r="B119" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B119,svod!$B:$B,1,0)&lt;&gt;$B119,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4734,14 +4823,14 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="24">
         <v>119</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120" s="4" t="str">
+      <c r="B120" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="25" t="str">
         <f>IFERROR(IF(VLOOKUP($B120,svod!$B:$B,1,0)&lt;&gt;$B120,"","отчет сделан"),"должник")</f>
         <v>должник</v>
       </c>
@@ -4750,214 +4839,25 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>120</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B121,svod!$B:$B,1,0)&lt;&gt;$B121,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D121" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B121,svod!B124:C319,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>121</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C122" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B122,svod!$B:$B,1,0)&lt;&gt;$B122,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D122" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B122,svod!B125:C320,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>122</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B123,svod!$B:$B,1,0)&lt;&gt;$B123,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D123" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B123,svod!B126:C321,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>123</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B124,svod!$B:$B,1,0)&lt;&gt;$B124,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D124" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B124,svod!B127:C322,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>124</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B125,svod!$B:$B,1,0)&lt;&gt;$B125,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D125" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B125,svod!B128:C323,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B126,svod!$B:$B,1,0)&lt;&gt;$B126,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D126" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B126,svod!B129:C324,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>126</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B127,svod!$B:$B,1,0)&lt;&gt;$B127,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D127" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B127,svod!B130:C325,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>127</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C128" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B128,svod!$B:$B,1,0)&lt;&gt;$B128,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D128" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B128,svod!B131:C326,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>128</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B129,svod!$B:$B,1,0)&lt;&gt;$B129,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D129" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B129,svod!B132:C327,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B130,svod!$B:$B,1,0)&lt;&gt;$B130,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D130" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B130,svod!B133:C328,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>130</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B131,svod!$B:$B,1,0)&lt;&gt;$B131,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D131" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B131,svod!B134:C329,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>131</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="4" t="str">
-        <f>IFERROR(IF(VLOOKUP($B132,svod!$B:$B,1,0)&lt;&gt;$B132,"","отчет сделан"),"должник")</f>
-        <v>должник</v>
-      </c>
-      <c r="D132" s="18" t="str">
-        <f>IFERROR(IF(VLOOKUP($B132,svod!B135:C330,2,0)="","пустой отчет","отчет сделан"),"")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"должник"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"отчет сделан"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"должник"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"отчет сделан"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"пустой отчет"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"отчет сделан"</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B120">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
